--- a/results/binary/evaluation_results_google-bert_bert-base-uncased.xlsx
+++ b/results/binary/evaluation_results_google-bert_bert-base-uncased.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8412371134020619</v>
+        <v>0.8556701030927835</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8419643242891667</v>
+        <v>0.8564377440137302</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8412371134020619</v>
+        <v>0.8556701030927835</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8436126505980061</v>
+        <v>0.8588006593871055</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7162695847912962</v>
+        <v>0.7449579246139504</v>
       </c>
     </row>
   </sheetData>
